--- a/bin/testData/TestData.xlsx
+++ b/bin/testData/TestData.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Incture\Selenium\Kaust\src\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Incture\Kaust\src\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="9720" windowWidth="20730" xWindow="0" yWindow="18600"/>
+    <workbookView xWindow="0" yWindow="22800" windowWidth="20730" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="441">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1321,9 +1321,6 @@
     <t>edit</t>
   </si>
   <si>
-    <t>NOT editable</t>
-  </si>
-  <si>
     <t>Col_rfs_subsn_req_info_kaust_id</t>
   </si>
   <si>
@@ -1345,15 +1342,20 @@
     <t>2000003414</t>
   </si>
   <si>
-    <t>1001700449</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>D:\Book1.xls</t>
+  </si>
+  <si>
+    <t>1001700485</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1400,18 +1402,8 @@
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,12 +1415,6 @@
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
     </fill>
     <fill>
       <patternFill patternType="solid"/>
@@ -1470,41 +1456,39 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1521,10 +1505,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1688,21 +1672,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1719,7 +1703,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1771,182 +1755,182 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="60" max="60" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="61" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="62" max="62" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="63" max="63" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="64" max="64" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="65" max="65" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="66" max="66" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="67" max="67" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="68" max="68" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="69" max="69" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="70" max="70" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="71" max="71" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="72" max="72" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="73" max="73" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="74" max="74" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="75" max="75" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="76" max="76" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="78" max="78" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="79" max="79" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="80" max="80" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="81" max="81" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="86" max="86" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="87" max="87" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="88" max="88" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="89" max="89" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="90" max="90" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="94" max="94" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="95" max="96" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="97" max="97" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="98" max="98" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="99" max="99" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="100" max="100" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="101" max="101" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="102" max="102" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="103" max="103" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="105" max="105" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="107" max="107" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="108" max="108" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="109" max="109" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="113" max="113" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="114" max="114" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="115" max="115" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="116" max="116" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="117" max="118" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="119" max="119" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="120" max="120" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="121" max="121" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="122" max="122" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="123" max="123" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="124" max="125" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="126" max="126" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="127" max="127" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="128" max="128" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="129" max="129" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="130" max="130" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="131" max="131" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="132" max="132" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="133" max="133" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="134" max="134" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="135" max="135" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="136" max="136" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="137" max="137" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="138" max="138" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="139" max="139" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="140" max="140" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="141" max="141" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="142" max="142" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="143" max="143" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="144" max="144" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="145" max="145" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="146" max="146" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="147" max="148" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="149" max="149" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="150" max="151" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="152" max="152" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="153" max="153" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="154" max="154" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="155" max="155" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="156" max="156" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="157" max="157" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="158" max="158" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="159" max="159" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="160" max="160" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="161" max="161" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="162" max="162" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="163" max="163" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="164" max="164" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="165" max="165" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="166" max="166" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="167" max="167" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="168" max="168" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="169" max="169" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="170" max="170" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="171" max="171" customWidth="true" width="46.7109375" collapsed="true"/>
-    <col min="172" max="172" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="173" max="173" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="174" max="174" customWidth="true" width="44.140625" collapsed="true"/>
-    <col min="175" max="175" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="176" max="176" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="191" max="191" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="199" max="199" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="200" max="200" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="20" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="14" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="15" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="21" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="22" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="11" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="27" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="18" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="13" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="95" max="96" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="19" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="26" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="31" customWidth="1" collapsed="1"/>
+    <col min="113" max="113" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="116" max="116" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="117" max="118" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="119" max="119" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="120" max="120" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="121" max="121" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="122" max="122" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="124" max="125" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="126" max="126" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="25" customWidth="1" collapsed="1"/>
+    <col min="128" max="128" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="129" max="129" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="130" max="130" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="132" max="132" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="133" max="133" width="23" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="136" max="136" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="137" max="137" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="138" max="138" width="26" customWidth="1" collapsed="1"/>
+    <col min="139" max="139" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="140" max="140" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="141" max="141" width="37" customWidth="1" collapsed="1"/>
+    <col min="142" max="142" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="144" max="144" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="145" max="145" width="32" customWidth="1" collapsed="1"/>
+    <col min="146" max="146" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="147" max="148" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="149" max="149" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="150" max="151" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="153" max="153" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="154" max="154" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="155" max="155" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="156" max="156" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="157" max="157" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="158" max="158" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="160" max="160" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="161" max="161" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="162" max="162" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="163" max="163" width="30" customWidth="1" collapsed="1"/>
+    <col min="164" max="164" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="165" max="165" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="166" max="166" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="168" max="168" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="169" max="169" width="34" customWidth="1" collapsed="1"/>
+    <col min="170" max="170" width="43" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="46.7109375" customWidth="1" collapsed="1"/>
+    <col min="172" max="172" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="173" max="173" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="174" max="174" width="44.140625" customWidth="1" collapsed="1"/>
+    <col min="175" max="175" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="176" max="176" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="191" max="191" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="199" max="199" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="200" max="200" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.25">
@@ -2215,12 +2199,12 @@
         <v>98</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:90" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>189</v>
+        <v>438</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -2250,7 +2234,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>19</v>
@@ -2280,150 +2264,18 @@
         <v>1001602208</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="3" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="T3" t="s">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" t="s">
+    </row>
+    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
         <v>102</v>
       </c>
-      <c r="AD3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CL3" t="s">
+    </row>
+    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2431,142 +2283,142 @@
       <c r="EJ22" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="20" max="21" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="28" max="29" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="63" max="63" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="65" max="65" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="66" max="66" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="75" max="76" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="79" max="79" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
-    <col min="80" max="80" bestFit="true" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" width="50.140625" collapsed="true"/>
-    <col min="84" max="84" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="85" max="85" bestFit="true" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="86" max="86" bestFit="true" customWidth="true" width="52.7109375" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
-    <col min="89" max="89" bestFit="true" customWidth="true" width="59.28515625" collapsed="true"/>
-    <col min="90" max="90" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" width="42.5703125" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="94" max="94" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="100" max="100" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="101" max="102" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="103" max="103" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="105" max="105" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="107" max="107" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="108" max="108" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="109" max="109" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="110" max="110" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="111" max="111" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="112" max="114" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="115" max="115" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="116" max="116" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="117" max="117" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="118" max="118" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="119" max="119" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="120" max="120" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="121" max="121" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="122" max="122" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="123" max="124" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="125" max="125" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="126" max="126" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="127" max="127" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="128" max="128" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="129" max="129" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="130" max="130" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="131" max="131" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="132" max="133" bestFit="true" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="134" max="134" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="29" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="26" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="31" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="19" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="18" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="35.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="76" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="43" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="35.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="32.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="50.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="53.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="52.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="59.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="101" max="102" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="33" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="112" max="114" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="27" customWidth="1" collapsed="1"/>
+    <col min="116" max="116" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="117" max="117" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="118" max="118" width="26" customWidth="1" collapsed="1"/>
+    <col min="119" max="119" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="120" max="120" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="121" max="121" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="122" max="122" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="123" max="124" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="125" max="125" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="126" max="126" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="128" max="128" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="129" max="129" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="130" max="130" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="132" max="133" width="41.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="24.6" r="1" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:149" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2465,7 @@
         <v>137</v>
       </c>
       <c r="Q1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R1" t="s">
         <v>138</v>
@@ -2853,16 +2705,16 @@
         <v>199</v>
       </c>
       <c r="CS1" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="CT1" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CU1" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CV1" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="CV1" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="CW1" t="s">
         <v>204</v>
@@ -2984,7 +2836,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>20</v>
@@ -3084,7 +2936,7 @@
       <c r="A3" t="s">
         <v>429</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>430</v>
       </c>
       <c r="F3" t="s">
@@ -3100,13 +2952,13 @@
         <v>102</v>
       </c>
       <c r="O3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R3" t="s">
         <v>102</v>
@@ -3136,7 +2988,7 @@
         <v>102</v>
       </c>
       <c r="AI3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO3" t="s">
         <v>102</v>
@@ -3145,7 +2997,7 @@
         <v>102</v>
       </c>
       <c r="AQ3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AR3" t="s">
         <v>102</v>
@@ -3154,10 +3006,10 @@
         <v>102</v>
       </c>
       <c r="AV3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX3" t="s">
         <v>102</v>
@@ -3181,34 +3033,34 @@
         <v>102</v>
       </c>
       <c r="BN3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BO3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BP3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BQ3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BR3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BS3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BT3" t="s">
         <v>102</v>
       </c>
       <c r="BU3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BV3" t="s">
         <v>102</v>
       </c>
       <c r="CB3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="CC3" t="s">
         <v>102</v>
@@ -3238,19 +3090,19 @@
         <v>102</v>
       </c>
       <c r="EL3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="EM3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="EN3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="ES3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="5" spans="1:149" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:149" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
     </row>
@@ -3267,134 +3119,134 @@
       <c r="C10" s="11"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FW3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane topLeftCell="EG1" xSplit="19995"/>
-      <selection activeCell="DW2" sqref="DW2"/>
-      <selection activeCell="EG1" pane="topRight" sqref="EG1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane xSplit="9285" topLeftCell="FV1"/>
+      <selection activeCell="I5" sqref="I5"/>
+      <selection pane="topRight" activeCell="EG1" sqref="EG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="25" max="29" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="33" max="35" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="37" max="38" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="40" max="42" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="44" max="45" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="46" max="48" customWidth="true" width="36.140625" collapsed="true"/>
-    <col min="49" max="53" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="56" max="59" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="60" max="62" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="63" max="63" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="64" max="64" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="65" max="65" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="66" max="66" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="67" max="67" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="68" max="68" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="69" max="69" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="70" max="77" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="78" max="78" customWidth="true" width="55.28515625" collapsed="true"/>
-    <col min="79" max="79" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="80" max="80" customWidth="true" width="59.28515625" collapsed="true"/>
-    <col min="81" max="81" customWidth="true" width="59.7109375" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" width="58.5703125" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="85" max="90" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="91" max="94" bestFit="true" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="95" max="97" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="98" max="100" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="101" max="102" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="103" max="103" customWidth="true" width="54.28515625" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="105" max="105" customWidth="true" width="57.140625" collapsed="true"/>
-    <col min="106" max="107" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="108" max="108" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="109" max="109" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="110" max="110" customWidth="true" width="40.5703125" collapsed="true"/>
-    <col min="111" max="111" customWidth="true" width="52.28515625" collapsed="true"/>
-    <col min="112" max="112" customWidth="true" width="62.5703125" collapsed="true"/>
-    <col min="113" max="113" customWidth="true" width="50.5703125" collapsed="true"/>
-    <col min="114" max="116" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="117" max="117" customWidth="true" width="46.0" collapsed="true"/>
-    <col min="118" max="118" customWidth="true" width="61.5703125" collapsed="true"/>
-    <col min="119" max="127" customWidth="true" width="46.0" collapsed="true"/>
-    <col min="128" max="128" customWidth="true" width="52.5703125" collapsed="true"/>
-    <col min="129" max="132" customWidth="true" width="46.0" collapsed="true"/>
-    <col min="133" max="133" customWidth="true" width="56.28515625" collapsed="true"/>
-    <col min="134" max="134" customWidth="true" width="56.42578125" collapsed="true"/>
-    <col min="135" max="135" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="136" max="136" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="137" max="138" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="139" max="139" customWidth="true" width="53.85546875" collapsed="true"/>
-    <col min="140" max="145" customWidth="true" width="57.5703125" collapsed="true"/>
-    <col min="146" max="146" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="147" max="147" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="148" max="148" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="149" max="149" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="150" max="150" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="151" max="151" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="152" max="152" customWidth="true" width="53.85546875" collapsed="true"/>
-    <col min="153" max="153" customWidth="true" width="61.85546875" collapsed="true"/>
-    <col min="154" max="154" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="155" max="155" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="156" max="156" customWidth="true" width="52.85546875" collapsed="true"/>
-    <col min="157" max="159" customWidth="true" width="49.7109375" collapsed="true"/>
-    <col min="160" max="160" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="161" max="161" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="162" max="163" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="164" max="164" customWidth="true" width="37.85546875" collapsed="true"/>
-    <col min="165" max="165" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="166" max="166" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="167" max="167" customWidth="true" width="46.140625" collapsed="true"/>
-    <col min="168" max="169" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="170" max="170" customWidth="true" width="42.85546875" collapsed="true"/>
-    <col min="171" max="171" customWidth="true" width="49.85546875" collapsed="true"/>
-    <col min="172" max="173" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="174" max="174" customWidth="true" width="49.140625" collapsed="true"/>
-    <col min="175" max="175" customWidth="true" width="55.85546875" collapsed="true"/>
-    <col min="176" max="176" customWidth="true" width="49.140625" collapsed="true"/>
-    <col min="177" max="177" customWidth="true" width="57.5703125" collapsed="true"/>
-    <col min="178" max="178" customWidth="true" width="66.5703125" collapsed="true"/>
-    <col min="179" max="179" customWidth="true" width="54.85546875" collapsed="true"/>
+    <col min="1" max="1" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="25" max="29" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="29" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="33" max="35" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="40" max="42" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="44" max="45" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="46" max="48" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="49" max="53" width="29" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="43" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29" customWidth="1" collapsed="1"/>
+    <col min="56" max="59" width="34" customWidth="1" collapsed="1"/>
+    <col min="60" max="62" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="24" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="40" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="70" max="77" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="59.28515625" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="59.7109375" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="58.5703125" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="85" max="90" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="91" max="94" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="97" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="98" max="100" width="35" customWidth="1" collapsed="1"/>
+    <col min="101" max="102" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="54.28515625" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="57.140625" customWidth="1" collapsed="1"/>
+    <col min="106" max="107" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="40.5703125" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="62.5703125" customWidth="1" collapsed="1"/>
+    <col min="113" max="113" width="50.5703125" customWidth="1" collapsed="1"/>
+    <col min="114" max="116" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="117" max="117" width="46" customWidth="1" collapsed="1"/>
+    <col min="118" max="118" width="61.5703125" customWidth="1" collapsed="1"/>
+    <col min="119" max="127" width="46" customWidth="1" collapsed="1"/>
+    <col min="128" max="128" width="52.5703125" customWidth="1" collapsed="1"/>
+    <col min="129" max="132" width="46" customWidth="1" collapsed="1"/>
+    <col min="133" max="133" width="56.28515625" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="56.42578125" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="136" max="136" width="45.5703125" customWidth="1" collapsed="1"/>
+    <col min="137" max="138" width="50" customWidth="1" collapsed="1"/>
+    <col min="139" max="139" width="53.85546875" customWidth="1" collapsed="1"/>
+    <col min="140" max="145" width="57.5703125" customWidth="1" collapsed="1"/>
+    <col min="146" max="146" width="47.85546875" customWidth="1" collapsed="1"/>
+    <col min="147" max="147" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="148" max="148" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="149" max="149" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="150" max="150" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="33" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="53.85546875" customWidth="1" collapsed="1"/>
+    <col min="153" max="153" width="61.85546875" customWidth="1" collapsed="1"/>
+    <col min="154" max="154" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="155" max="155" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="156" max="156" width="52.85546875" customWidth="1" collapsed="1"/>
+    <col min="157" max="159" width="49.7109375" customWidth="1" collapsed="1"/>
+    <col min="160" max="160" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="161" max="161" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="162" max="163" width="29" customWidth="1" collapsed="1"/>
+    <col min="164" max="164" width="37.85546875" customWidth="1" collapsed="1"/>
+    <col min="165" max="165" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="166" max="166" width="41" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="46.140625" customWidth="1" collapsed="1"/>
+    <col min="168" max="169" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="170" max="170" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="49.85546875" customWidth="1" collapsed="1"/>
+    <col min="172" max="173" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="174" max="174" width="49.140625" customWidth="1" collapsed="1"/>
+    <col min="175" max="175" width="55.85546875" customWidth="1" collapsed="1"/>
+    <col min="176" max="176" width="49.140625" customWidth="1" collapsed="1"/>
+    <col min="177" max="177" width="57.5703125" customWidth="1" collapsed="1"/>
+    <col min="178" max="178" width="66.5703125" customWidth="1" collapsed="1"/>
+    <col min="179" max="179" width="54.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:179" x14ac:dyDescent="0.25">
@@ -3956,8 +3808,8 @@
       <c r="I2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="K2">
-        <v>10</v>
+      <c r="K2" t="s">
+        <v>439</v>
       </c>
       <c r="AH2" t="s">
         <v>367</v>
@@ -4065,6 +3917,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>